--- a/世界设定（未定）.xlsx
+++ b/世界设定（未定）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>世界设定表</t>
   </si>
@@ -90,7 +90,19 @@
     <t>主要有哪些国家</t>
   </si>
   <si>
-    <t>西门联邦，华双亚集合体，沿洋联盟【第四次空陨前】，救世，（待定），掠影</t>
+    <t>西门联邦，华双亚集合体，沿洋联盟【空陨4th前】，救世，帕斯提忒，掠影</t>
+  </si>
+  <si>
+    <t>主要能量来源</t>
+  </si>
+  <si>
+    <t>空陨能</t>
+  </si>
+  <si>
+    <t>其他能量来源</t>
+  </si>
+  <si>
+    <t>聚合二氦氢(H20He2），乙滹硫(SC10H8O)</t>
   </si>
   <si>
     <t>社会系统</t>
@@ -103,6 +115,93 @@
   </si>
   <si>
     <t>特别的政治形势</t>
+  </si>
+  <si>
+    <t>新世界与帕斯提忒的微妙关系</t>
+  </si>
+  <si>
+    <t>经济体制</t>
+  </si>
+  <si>
+    <t>计划经济</t>
+  </si>
+  <si>
+    <t>存在货币嘛？</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>货币制度</t>
+  </si>
+  <si>
+    <t>华锂，提忒押</t>
+  </si>
+  <si>
+    <t>家族制度</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>主要语言</t>
+  </si>
+  <si>
+    <t>地球语言，帕斯提忒语</t>
+  </si>
+  <si>
+    <t>特殊语言</t>
+  </si>
+  <si>
+    <t>古帕斯提忒语</t>
+  </si>
+  <si>
+    <t>交通方式</t>
+  </si>
+  <si>
+    <t>主要方式</t>
+  </si>
+  <si>
+    <t>沿线极速铁路，走路，载具</t>
+  </si>
+  <si>
+    <t>其他方式</t>
+  </si>
+  <si>
+    <t>意识迁移，重构迁跃，（balabala多了去了)</t>
+  </si>
+  <si>
+    <t>通信手段</t>
+  </si>
+  <si>
+    <t>多了去了，自己想</t>
+  </si>
+  <si>
+    <t>芯片记忆转移（备份）,空陨能超电流意识传送</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>生物怪物</t>
+  </si>
+  <si>
+    <t>强辐射地球生命，帕斯提忒的驻军</t>
+  </si>
+  <si>
+    <t>机械怪物</t>
+  </si>
+  <si>
+    <t>空陨导致的混乱机械，帕斯提忒的驻军</t>
+  </si>
+  <si>
+    <t>其他怪物</t>
+  </si>
+  <si>
+    <t>空陨纽元生命体</t>
   </si>
 </sst>
 </file>
@@ -124,6 +223,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -469,12 +569,170 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,19 +838,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,7 +859,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,13 +868,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,28 +892,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,10 +922,10 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,8 +983,134 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1077,156 +1461,814 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="4:4">
-      <c r="D1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="E1" s="3"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="3:5">
-      <c r="C3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="25"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
+      <c r="K26" s="21"/>
+      <c r="N26" s="21"/>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="N27" s="21"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="N28" s="21"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="36"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="36"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="M32" s="39"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="M33" s="39"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="40"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="M35" s="39"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="M36" s="39"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="40"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="39"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="39"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="41"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="38"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="M42" s="39"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="M43" s="39"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="42"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="68">
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:J2"/>
@@ -1249,22 +2291,52 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:J16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:J17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:J24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:M49"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="A5:B8"/>
     <mergeCell ref="A9:B19"/>
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E13:M15"/>
     <mergeCell ref="A20:B25"/>
+    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A31:B40"/>
+    <mergeCell ref="C31:D33"/>
+    <mergeCell ref="E31:J33"/>
+    <mergeCell ref="C34:D36"/>
+    <mergeCell ref="E34:J36"/>
+    <mergeCell ref="A41:B44"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:J44"/>
+    <mergeCell ref="A45:B64"/>
+    <mergeCell ref="C45:D49"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:M46"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="G47:M48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
